--- a/client/public/players.xlsx
+++ b/client/public/players.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="230">
   <si>
     <t>Name</t>
   </si>
@@ -30,15 +30,258 @@
     <t>photo</t>
   </si>
   <si>
+    <t>Pritesh shah</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>All Rounder</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Y8hEh8ybFkoAxAMRAnzv5j6J9f3UVC3h</t>
+  </si>
+  <si>
+    <t>Kaevalya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BqX6FUDLoiANj5AF8lug7VbfCNiyXhFN</t>
+  </si>
+  <si>
+    <t>Raj Shah</t>
+  </si>
+  <si>
+    <t>Batsman</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1E7hLv_c3HlXlbOgO8Ssh3SQwqDgyjcjn</t>
+  </si>
+  <si>
+    <t>Nemi salot</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1yd9F-_dl7T4ujYa5IAVoxNE7huCLWyT8</t>
+  </si>
+  <si>
+    <t>Swagat Sanghvi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_LXzW5ITt2R6etpBqHpHzKO2zWV9MD-X</t>
+  </si>
+  <si>
+    <t>Jimit Vora</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pSCfMWwEnFNOSJIoA1quPbNtihiaKkGe</t>
+  </si>
+  <si>
+    <t>Dharmil Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IXbhk6w0yqzuG57papQl6PM9I-oHKNoZ</t>
+  </si>
+  <si>
+    <t>Harsh Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VFmNb0nwpV-NPCHqgYDAvmlpikDwRUXY</t>
+  </si>
+  <si>
+    <t>Chintan Sha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1K926jEOUCrh5UDIxsm6gKezlD0jOAnxn</t>
+  </si>
+  <si>
+    <t>Tanish</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1r5VXplDQGzHnM8gC3Q9_oXOe1J3k1FNW</t>
+  </si>
+  <si>
+    <t>Rushabh Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=168-7-hZbcmRvavWlbQrSjucJn8kyLt1R</t>
+  </si>
+  <si>
+    <t>Maulik Bagadiya</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1b8zHtyyhx35JLXDhPTDgmLeYP7G5Q3ph</t>
+  </si>
+  <si>
+    <t>Param Vora</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1errUCP5GbWNoyLWIb8XH2bAIHCMETy9l</t>
+  </si>
+  <si>
+    <t>Dipesh Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kdh3MY7MY4KBvpWHdSQz0p8MyhEFmwWW</t>
+  </si>
+  <si>
+    <t>Rushabh shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Ef-uKrkqmVf0KVBACLrvxayE9RCudEuy</t>
+  </si>
+  <si>
+    <t>Bhavya shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RJ1ZWC1yToEA6as3PgXf6qaDbPyIniM3</t>
+  </si>
+  <si>
+    <t>Yashwardhan Gandhi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WF4IxXVme_SimRFdvLKGQbjeJs1LF11W</t>
+  </si>
+  <si>
+    <t>Mehul Jitendra Sanghavi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1w7Bfj_fjicyKnjzHsCM4Xgd__3bIGMkT</t>
+  </si>
+  <si>
+    <t>Kkunal Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1KIsA4ibSc24-LqzP1LXuTnIB40bLHXwe</t>
+  </si>
+  <si>
+    <t>Bhavik R Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xZYKu9McxbDU7UUCRmf1ian5OVwwdzIr</t>
+  </si>
+  <si>
+    <t>Dhruvin</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1n5CIlsYN9DioaR2pNtC3qBi7IlI_9XX0</t>
+  </si>
+  <si>
+    <t>Devansh Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZsDXlQTdC58hyh2SGWAxbkUI_r2ExsN1</t>
+  </si>
+  <si>
+    <t>Vishal Dhruva</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PEGBpJPtpybVFrdsEkfyGo8IHcQkxy0F</t>
+  </si>
+  <si>
+    <t>Devansh Mathukia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dPn3r4LuvTgW9qqDuFkJrktXZKo54Zed</t>
+  </si>
+  <si>
+    <t>Dhanya Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aoltN0jfRvOPvIC6wjmm-TSp251_QfYa</t>
+  </si>
+  <si>
+    <t>Milin Kothari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bNqP155BdJBY1wLRxlsBkUUZzZne4H-o</t>
+  </si>
+  <si>
+    <t>Bhavik Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19AqEuSoS-nV2RDJX1oEVtZem5_8Os_Vb</t>
+  </si>
+  <si>
+    <t>Mitesh Salot</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15zZQnpfEuUI1MCi1FMzi9xUx5MgfgKf0</t>
+  </si>
+  <si>
+    <t>Monil</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1D-129TX7UppBTm4haXtqH5jJzsR7Zu0-</t>
+  </si>
+  <si>
+    <t>Aryan Mehta</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13avoM0f72lQ7Wa29a-hXwv3ZZPPuim4z</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1S-rRVlGEaaw9JJQeMxz9QsakjvLe4Yjz</t>
+  </si>
+  <si>
+    <t>Chintan Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ba4xRzFOdTelc4qJH9GYOQsdRT7nNDu4</t>
+  </si>
+  <si>
+    <t>Manan m mehta</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cZygL6_Z-J7qOOaZR_h1oKmNq_aw7zVj</t>
+  </si>
+  <si>
+    <t>Keyur Kothari</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=195AIrd6WDv3XE37m-r5mAbgshCeNJGWh</t>
+  </si>
+  <si>
+    <t>Dhruvin Nitin Dhruva</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dzbPfNzxr3JVtfhpAw7qJFZ0Xoo2NjkZ</t>
+  </si>
+  <si>
+    <t>Bhaumik Shah</t>
+  </si>
+  <si>
+    <t>Meet Kuvadia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1X87QY_zWk4ZywYtmDcJpBrt9PQpa-WnL</t>
+  </si>
+  <si>
+    <t>Neel vora</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y7YTfdaavD3reOm3E87N684XgLCGhxiG</t>
+  </si>
+  <si>
+    <t>Jenil sanjay shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ab_SBOE8WA2i01TURjiDk_r2zEjVcBHb</t>
+  </si>
+  <si>
+    <t>Deep Shah</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ESfeC9kM2NHLj3J0XX9-8fVcOpDURsYs</t>
+  </si>
+  <si>
     <t>Tejas Sevantilal Doshi</t>
   </si>
   <si>
     <t>40+A</t>
   </si>
   <si>
-    <t>All Rounder</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1cG55ZR8PFnsq20CnkpltCKzx7VN131mR</t>
   </si>
   <si>
@@ -57,9 +300,6 @@
     <t>Ritesh Salot</t>
   </si>
   <si>
-    <t>Batsman</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1CI3HqdFCMw_h6CUhb_K-WU6yJHhk58Oi</t>
   </si>
   <si>
@@ -84,6 +324,9 @@
     <t>DIPESH PARIKH</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1H1zUyT_rrYK9y74Iu5_J3pB5eCCefrpU</t>
+  </si>
+  <si>
     <t>Jignesh Vora</t>
   </si>
   <si>
@@ -96,238 +339,7 @@
     <t>Amish</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=149PxHvHZW8q2x6uVvftqRcGkaopxukPg</t>
-  </si>
-  <si>
-    <t>Pritesh shah</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1Y8hEh8ybFkoAxAMRAnzv5j6J9f3UVC3h</t>
-  </si>
-  <si>
-    <t>Kaevalya</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1BqX6FUDLoiANj5AF8lug7VbfCNiyXhFN</t>
-  </si>
-  <si>
-    <t>Raj Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1E7hLv_c3HlXlbOgO8Ssh3SQwqDgyjcjn</t>
-  </si>
-  <si>
-    <t>Nemi salot</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1yd9F-_dl7T4ujYa5IAVoxNE7huCLWyT8</t>
-  </si>
-  <si>
-    <t>Swagat Sanghvi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1_LXzW5ITt2R6etpBqHpHzKO2zWV9MD-X</t>
-  </si>
-  <si>
-    <t>Jimit Vora</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1pSCfMWwEnFNOSJIoA1quPbNtihiaKkGe</t>
-  </si>
-  <si>
-    <t>Dharmil Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1IXbhk6w0yqzuG57papQl6PM9I-oHKNoZ</t>
-  </si>
-  <si>
-    <t>Harsh Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1VFmNb0nwpV-NPCHqgYDAvmlpikDwRUXY</t>
-  </si>
-  <si>
-    <t>Chintan Sha</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1K926jEOUCrh5UDIxsm6gKezlD0jOAnxn</t>
-  </si>
-  <si>
-    <t>Tanish</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1r5VXplDQGzHnM8gC3Q9_oXOe1J3k1FNW</t>
-  </si>
-  <si>
-    <t>Rushabh Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=168-7-hZbcmRvavWlbQrSjucJn8kyLt1R</t>
-  </si>
-  <si>
-    <t>Maulik Bagadiya</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1b8zHtyyhx35JLXDhPTDgmLeYP7G5Q3ph</t>
-  </si>
-  <si>
-    <t>Param Vora</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1errUCP5GbWNoyLWIb8XH2bAIHCMETy9l</t>
-  </si>
-  <si>
-    <t>Dipesh Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1kdh3MY7MY4KBvpWHdSQz0p8MyhEFmwWW</t>
-  </si>
-  <si>
-    <t>Rushabh shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1Ef-uKrkqmVf0KVBACLrvxayE9RCudEuy</t>
-  </si>
-  <si>
-    <t>Bhavya shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1RJ1ZWC1yToEA6as3PgXf6qaDbPyIniM3</t>
-  </si>
-  <si>
-    <t>Yashwardhan Gandhi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1WF4IxXVme_SimRFdvLKGQbjeJs1LF11W</t>
-  </si>
-  <si>
-    <t>Mehul Jitendra Sanghavi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1w7Bfj_fjicyKnjzHsCM4Xgd__3bIGMkT</t>
-  </si>
-  <si>
-    <t>Kkunal Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1KIsA4ibSc24-LqzP1LXuTnIB40bLHXwe</t>
-  </si>
-  <si>
-    <t>Bhavik R Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1xZYKu9McxbDU7UUCRmf1ian5OVwwdzIr</t>
-  </si>
-  <si>
-    <t>Dhruvin</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1n5CIlsYN9DioaR2pNtC3qBi7IlI_9XX0</t>
-  </si>
-  <si>
-    <t>Devansh Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1ZsDXlQTdC58hyh2SGWAxbkUI_r2ExsN1</t>
-  </si>
-  <si>
-    <t>Vishal Dhruva</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1PEGBpJPtpybVFrdsEkfyGo8IHcQkxy0F</t>
-  </si>
-  <si>
-    <t>Devansh Mathukia</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1dPn3r4LuvTgW9qqDuFkJrktXZKo54Zed</t>
-  </si>
-  <si>
-    <t>Dhanya Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1aoltN0jfRvOPvIC6wjmm-TSp251_QfYa</t>
-  </si>
-  <si>
-    <t>Milin Kothari</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1bNqP155BdJBY1wLRxlsBkUUZzZne4H-o</t>
-  </si>
-  <si>
-    <t>Bhavik Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=19AqEuSoS-nV2RDJX1oEVtZem5_8Os_Vb</t>
-  </si>
-  <si>
-    <t>Mitesh Salot</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=15zZQnpfEuUI1MCi1FMzi9xUx5MgfgKf0</t>
-  </si>
-  <si>
-    <t>Monil</t>
-  </si>
-  <si>
-    <t>Aryan Mehta</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=13avoM0f72lQ7Wa29a-hXwv3ZZPPuim4z</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1S-rRVlGEaaw9JJQeMxz9QsakjvLe4Yjz</t>
-  </si>
-  <si>
-    <t>Chintan Shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1ba4xRzFOdTelc4qJH9GYOQsdRT7nNDu4</t>
-  </si>
-  <si>
-    <t>Manan m mehta</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1cZygL6_Z-J7qOOaZR_h1oKmNq_aw7zVj</t>
-  </si>
-  <si>
-    <t>Keyur Kothari</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=195AIrd6WDv3XE37m-r5mAbgshCeNJGWh</t>
-  </si>
-  <si>
-    <t>Dhruvin Nitin Dhruva</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1dzbPfNzxr3JVtfhpAw7qJFZ0Xoo2NjkZ</t>
-  </si>
-  <si>
-    <t>Bhaumik Shah</t>
-  </si>
-  <si>
-    <t>Meet Kuvadia</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1X87QY_zWk4ZywYtmDcJpBrt9PQpa-WnL</t>
-  </si>
-  <si>
-    <t>Neel vora</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1y7YTfdaavD3reOm3E87N684XgLCGhxiG</t>
-  </si>
-  <si>
-    <t>Jenil sanjay shah</t>
-  </si>
-  <si>
-    <t>Deep Shah</t>
+    <t>https://drive.google.com/open?id=1u8AMYw8ElsQz_gaTO4m8sZHFs_cd8Fip</t>
   </si>
   <si>
     <t>RUSHABH MATHUKIA</t>
@@ -336,7 +348,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>https://drive.google.com/fOpen?id=1ztUx9xwrQDyY_vIgaDSgYT1gHbuX9D8S</t>
+    <t>https://drive.google.com/Open?id=1ztUx9xwrQDyY_vIgaDSgYT1gHbuX9D8S</t>
   </si>
   <si>
     <t>Hardik</t>
@@ -432,6 +444,9 @@
     <t>Kavya Kuvadia</t>
   </si>
   <si>
+    <t>https://drive.google.com/Open?id=1Zr0BZh4aQhAjYHDbAyjvNyQPpU6IxrDZ</t>
+  </si>
+  <si>
     <t>Fenil Sanghvi</t>
   </si>
   <si>
@@ -453,6 +468,9 @@
     <t>Viransh shah</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1QTd3gGCHcWmOikZ3JxLyj1S9Dp1efUKy</t>
+  </si>
+  <si>
     <t>Deepak Thakkar</t>
   </si>
   <si>
@@ -528,24 +546,18 @@
     <t>https://drive.google.com/open?id=1mofYdmZ7OLFLRYzvT4IsJ_UE0eSZG4h0</t>
   </si>
   <si>
-    <t>jay shah</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1x6peueIZFWeLkZL2mf53IHVJlFDc2Nac</t>
-  </si>
-  <si>
-    <t>Yash Doshi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1LWGGLp_cKtvl7Megn3Y43w79N6clqY-F</t>
-  </si>
-  <si>
     <t>Jigar Dilip Shah</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1fLIDG_EDwhIX3haB6Wq9NRuKaVDSl2cJ</t>
+  </si>
+  <si>
     <t>Rachit Sanghvi</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1JLfFjd-Gt82asHuKxyk8uyYV9SlWtHUJ</t>
+  </si>
+  <si>
     <t>Raj Bhadreshwara</t>
   </si>
   <si>
@@ -553,6 +565,21 @@
   </si>
   <si>
     <t>Parth Vora</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RBioaaVw-b-g_QzFBigE6rgYLiNOi4hh</t>
+  </si>
+  <si>
+    <t>Vihaan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19wVayPzItg0MEwQ6C61iL7NFOE8YFZ-U</t>
+  </si>
+  <si>
+    <t>Pratik Bagadia</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/Open?id=1MwtTy5aqF5A1E2_FT5H5xTxPxRbZytQW</t>
   </si>
   <si>
     <t>Hemant shah</t>
@@ -968,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>9.820859577E9</v>
+        <v>9.773606355E9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -985,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>9.819578866E9</v>
+        <v>7.021684837E9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -1002,30 +1029,30 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>9.00400101E9</v>
+        <v>9.930129547E9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>9.89215956E9</v>
+        <v>9.769989849E9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
@@ -1036,7 +1063,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>9.820632132E9</v>
+        <v>9.867561611E9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -1053,7 +1080,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>9.867394975E9</v>
+        <v>7.977407945E9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1070,7 +1097,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>9.821354528E9</v>
+        <v>8.928966343E9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -1087,27 +1114,30 @@
         <v>22</v>
       </c>
       <c r="B9" s="1">
-        <v>9.004399858E9</v>
+        <v>8.879307935E9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>9.821186216E9</v>
+        <v>9.82079147E9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>25</v>
@@ -1118,7 +1148,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>9.892685147E9</v>
+        <v>9.93031059E9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -1135,517 +1165,518 @@
         <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>9.773606355E9</v>
+        <v>9.869311188E9</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.898593594E9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7.021684837E9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.50684275E9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="1">
-        <v>9.930129547E9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9.870741334E9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="1">
-        <v>9.769989849E9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.892055515E9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="1">
-        <v>9.867561611E9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9.022222933E9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7.977407945E9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.769476954E9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8.928966343E9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.02212012E9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8.879307935E9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9.869545696E9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9.82079147E9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9.930072959E9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="1">
-        <v>9.93031059E9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.8987921E9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9.869311188E9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7.977588754E9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B23" s="1">
-        <v>8.898593594E9</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7.021876585E9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="1">
-        <v>7.50684275E9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9.869225827E9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="1">
-        <v>9.870741334E9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9.029022776E9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="1">
-        <v>9.892055515E9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9.821159882E9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="1">
-        <v>9.022222933E9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9.920681132E9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="1">
-        <v>9.769476954E9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9.768050032E9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="1">
-        <v>9.02212012E9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.0807461E9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B30" s="1">
-        <v>9.869545696E9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8.43360327E9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="1">
-        <v>9.930072959E9</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8.09746217E9</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="1">
-        <v>8.8987921E9</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9.699262927E9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" s="1">
-        <v>7.977588754E9</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9.867636916E9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B34" s="1">
-        <v>7.021876585E9</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8.779636629E9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" s="1">
-        <v>9.869225827E9</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9.930013972E9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B36" s="1">
-        <v>9.029022776E9</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1">
-        <v>9.821159882E9</v>
+        <v>4.043333424E9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="E37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1">
-        <v>9.920681132E9</v>
+        <v>8.655209616E9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1">
-        <v>9.768050032E9</v>
+        <v>8.356960623E9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1">
-        <v>8.0807461E9</v>
+        <v>9.930818425E9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8.433810983E9</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B41" s="1">
-        <v>8.43360327E9</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9.820859577E9</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" s="1">
-        <v>8.09746217E9</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>7</v>
@@ -1659,10 +1690,10 @@
         <v>90</v>
       </c>
       <c r="B43" s="1">
-        <v>9.699262927E9</v>
+        <v>9.819578866E9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>7</v>
@@ -1676,10 +1707,10 @@
         <v>92</v>
       </c>
       <c r="B44" s="1">
-        <v>9.867636916E9</v>
+        <v>9.00400101E9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>7</v>
@@ -1693,13 +1724,13 @@
         <v>94</v>
       </c>
       <c r="B45" s="1">
-        <v>8.779636629E9</v>
+        <v>9.89215956E9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>95</v>
@@ -1710,13 +1741,13 @@
         <v>96</v>
       </c>
       <c r="B46" s="1">
-        <v>9.930013972E9</v>
+        <v>9.820632132E9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>97</v>
@@ -1727,1077 +1758,1102 @@
         <v>98</v>
       </c>
       <c r="B47" s="1">
-        <v>4.043333424E9</v>
+        <v>9.867394975E9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1">
-        <v>8.655209616E9</v>
+        <v>9.821354528E9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1">
-        <v>8.356960623E9</v>
+        <v>9.004399858E9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1">
-        <v>9.930818425E9</v>
+        <v>9.821186216E9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1">
-        <v>8.433810983E9</v>
+        <v>9.892685147E9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B52" s="1">
         <v>9.699266669E9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B53" s="1">
         <v>9.819079703E9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B54" s="1">
         <v>8.850104467E9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1">
         <v>9.769932254E9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1">
         <v>8.369063236E9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1">
         <v>9.833886667E9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1">
         <v>9.867814546E9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1">
         <v>9.820255163E9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1">
         <v>9.870793585E9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1">
         <v>9.503908672E9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B62" s="1">
         <v>9.029744054E9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63" s="1">
         <v>9.920207663E9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B64" s="1">
         <v>9.313707361E9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B65" s="1">
         <v>9.820079925E9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B66" s="1">
         <v>7.710032607E9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1">
         <v>9.833390547E9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B68" s="1">
         <v>7.977275351E9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B69" s="1">
         <v>9.137274284E9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B70" s="1">
         <v>9.870123403E9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B71" s="1">
         <v>9.769545777E9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B72" s="1">
         <v>9.32166458E9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B73" s="1">
         <v>9.93099987E9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B74" s="1">
         <v>9.819784749E9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B75" s="1">
         <v>9.702326555E9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B76" s="1">
         <v>7.666127999E9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B77" s="1">
         <v>9.833652653E9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B78" s="1">
         <v>9.820417077E9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B79" s="1">
         <v>9.833207815E9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B80" s="1">
         <v>9.870738887E9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B81" s="1">
         <v>9.6996928E9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B82" s="1">
         <v>7.718822525E9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B83" s="1">
         <v>9.987885797E9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B84" s="1">
         <v>8.36921425E9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B85" s="1">
         <v>9.920460467E9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B86" s="1">
-        <v>9.987378929E9</v>
+        <v>9.619494456E9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B87" s="1">
-        <v>8.779627831E9</v>
+        <v>9.773616681E9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B88" s="1">
-        <v>9.619494456E9</v>
+        <v>8.108881076E9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B89" s="1">
-        <v>9.773616681E9</v>
+        <v>8.976444064E9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B90" s="1">
-        <v>8.108881076E9</v>
+        <v>8.591770115E9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B91" s="1">
-        <v>8.976444064E9</v>
+        <v>9.821345631E9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>14</v>
+        <v>105</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B92" s="1">
         <v>9.82004587E9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B93" s="1">
         <v>8.89800144E9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B94" s="1">
         <v>9.869479136E9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B95" s="1">
         <v>9.820812302E9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B96" s="1">
         <v>7.208043142E9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B97" s="1">
         <v>9.768926868E9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B98" s="1">
         <v>9.821133336E9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B99" s="1">
         <v>9.819968255E9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B100" s="1">
         <v>9.833733943E9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B101" s="1">
         <v>9.930760682E9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B102" s="1">
         <v>8.850616502E9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B103" s="1">
         <v>9.820019991E9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B104" s="1">
         <v>9.892894116E9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B105" s="1">
         <v>9.004955312E9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B106" s="1">
         <v>9.819412999E9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B107" s="1">
         <v>9.892617742E9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B108" s="1">
         <v>9.869273734E9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B109" s="1">
         <v>9.82051877E9</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B110" s="1">
         <v>9.820483111E9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B111" s="1">
         <v>9.820479965E9</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2814,99 +2870,108 @@
     <hyperlink r:id="rId5" ref="E6"/>
     <hyperlink r:id="rId6" ref="E7"/>
     <hyperlink r:id="rId7" ref="E8"/>
-    <hyperlink r:id="rId8" ref="E10"/>
-    <hyperlink r:id="rId9" ref="E11"/>
-    <hyperlink r:id="rId10" ref="E12"/>
-    <hyperlink r:id="rId11" ref="E13"/>
-    <hyperlink r:id="rId12" ref="E14"/>
-    <hyperlink r:id="rId13" ref="E15"/>
-    <hyperlink r:id="rId14" ref="E16"/>
-    <hyperlink r:id="rId15" ref="E17"/>
-    <hyperlink r:id="rId16" ref="E18"/>
-    <hyperlink r:id="rId17" ref="E19"/>
-    <hyperlink r:id="rId18" ref="E20"/>
-    <hyperlink r:id="rId19" ref="E21"/>
-    <hyperlink r:id="rId20" ref="E22"/>
-    <hyperlink r:id="rId21" ref="E23"/>
-    <hyperlink r:id="rId22" ref="E24"/>
-    <hyperlink r:id="rId23" ref="E25"/>
-    <hyperlink r:id="rId24" ref="E26"/>
-    <hyperlink r:id="rId25" ref="E27"/>
-    <hyperlink r:id="rId26" ref="E28"/>
-    <hyperlink r:id="rId27" ref="E29"/>
-    <hyperlink r:id="rId28" ref="E30"/>
-    <hyperlink r:id="rId29" ref="E31"/>
-    <hyperlink r:id="rId30" ref="E32"/>
-    <hyperlink r:id="rId31" ref="E33"/>
-    <hyperlink r:id="rId32" ref="E34"/>
-    <hyperlink r:id="rId33" ref="E35"/>
-    <hyperlink r:id="rId34" ref="E36"/>
-    <hyperlink r:id="rId35" ref="E37"/>
+    <hyperlink r:id="rId8" ref="E9"/>
+    <hyperlink r:id="rId9" ref="E10"/>
+    <hyperlink r:id="rId10" ref="E11"/>
+    <hyperlink r:id="rId11" ref="E12"/>
+    <hyperlink r:id="rId12" ref="E13"/>
+    <hyperlink r:id="rId13" ref="E14"/>
+    <hyperlink r:id="rId14" ref="E15"/>
+    <hyperlink r:id="rId15" ref="E16"/>
+    <hyperlink r:id="rId16" ref="E17"/>
+    <hyperlink r:id="rId17" ref="E18"/>
+    <hyperlink r:id="rId18" ref="E19"/>
+    <hyperlink r:id="rId19" ref="E20"/>
+    <hyperlink r:id="rId20" ref="E21"/>
+    <hyperlink r:id="rId21" ref="E22"/>
+    <hyperlink r:id="rId22" ref="E23"/>
+    <hyperlink r:id="rId23" ref="E24"/>
+    <hyperlink r:id="rId24" ref="E25"/>
+    <hyperlink r:id="rId25" ref="E26"/>
+    <hyperlink r:id="rId26" ref="E27"/>
+    <hyperlink r:id="rId27" ref="E28"/>
+    <hyperlink r:id="rId28" ref="E29"/>
+    <hyperlink r:id="rId29" ref="E30"/>
+    <hyperlink r:id="rId30" ref="E31"/>
+    <hyperlink r:id="rId31" ref="E32"/>
+    <hyperlink r:id="rId32" ref="E33"/>
+    <hyperlink r:id="rId33" ref="E34"/>
+    <hyperlink r:id="rId34" ref="E35"/>
+    <hyperlink r:id="rId35" ref="E36"/>
     <hyperlink r:id="rId36" ref="E38"/>
     <hyperlink r:id="rId37" ref="E39"/>
-    <hyperlink r:id="rId38" ref="E41"/>
-    <hyperlink r:id="rId39" ref="E42"/>
-    <hyperlink r:id="rId40" ref="E43"/>
-    <hyperlink r:id="rId41" ref="E44"/>
-    <hyperlink r:id="rId42" ref="E45"/>
-    <hyperlink r:id="rId43" ref="E46"/>
-    <hyperlink r:id="rId44" ref="E48"/>
-    <hyperlink r:id="rId45" ref="E49"/>
-    <hyperlink r:id="rId46" ref="E52"/>
-    <hyperlink r:id="rId47" ref="E53"/>
-    <hyperlink r:id="rId48" ref="E54"/>
-    <hyperlink r:id="rId49" ref="E55"/>
-    <hyperlink r:id="rId50" ref="E56"/>
-    <hyperlink r:id="rId51" ref="E57"/>
-    <hyperlink r:id="rId52" ref="E58"/>
-    <hyperlink r:id="rId53" ref="E59"/>
-    <hyperlink r:id="rId54" ref="E60"/>
-    <hyperlink r:id="rId55" ref="E61"/>
-    <hyperlink r:id="rId56" ref="E62"/>
-    <hyperlink r:id="rId57" ref="E63"/>
-    <hyperlink r:id="rId58" ref="E64"/>
-    <hyperlink r:id="rId59" ref="E65"/>
-    <hyperlink r:id="rId60" ref="E66"/>
-    <hyperlink r:id="rId61" ref="E67"/>
-    <hyperlink r:id="rId62" ref="E69"/>
-    <hyperlink r:id="rId63" ref="E70"/>
-    <hyperlink r:id="rId64" ref="E71"/>
-    <hyperlink r:id="rId65" ref="E73"/>
-    <hyperlink r:id="rId66" ref="E74"/>
-    <hyperlink r:id="rId67" ref="E75"/>
-    <hyperlink r:id="rId68" ref="E76"/>
-    <hyperlink r:id="rId69" ref="E77"/>
-    <hyperlink r:id="rId70" ref="E79"/>
-    <hyperlink r:id="rId71" ref="E80"/>
-    <hyperlink r:id="rId72" ref="E81"/>
-    <hyperlink r:id="rId73" ref="E82"/>
-    <hyperlink r:id="rId74" ref="E83"/>
-    <hyperlink r:id="rId75" ref="E84"/>
-    <hyperlink r:id="rId76" ref="E85"/>
-    <hyperlink r:id="rId77" ref="E86"/>
-    <hyperlink r:id="rId78" ref="E87"/>
-    <hyperlink r:id="rId79" ref="E90"/>
-    <hyperlink r:id="rId80" ref="E92"/>
-    <hyperlink r:id="rId81" ref="E93"/>
-    <hyperlink r:id="rId82" ref="E94"/>
-    <hyperlink r:id="rId83" ref="E95"/>
-    <hyperlink r:id="rId84" ref="E96"/>
-    <hyperlink r:id="rId85" ref="E97"/>
-    <hyperlink r:id="rId86" ref="E98"/>
-    <hyperlink r:id="rId87" ref="E99"/>
-    <hyperlink r:id="rId88" ref="E100"/>
-    <hyperlink r:id="rId89" ref="E101"/>
-    <hyperlink r:id="rId90" ref="E102"/>
-    <hyperlink r:id="rId91" ref="E103"/>
-    <hyperlink r:id="rId92" ref="E104"/>
-    <hyperlink r:id="rId93" ref="E105"/>
-    <hyperlink r:id="rId94" ref="E106"/>
-    <hyperlink r:id="rId95" ref="E107"/>
-    <hyperlink r:id="rId96" ref="E108"/>
-    <hyperlink r:id="rId97" ref="E109"/>
-    <hyperlink r:id="rId98" ref="E110"/>
-    <hyperlink r:id="rId99" ref="E111"/>
+    <hyperlink r:id="rId38" ref="E40"/>
+    <hyperlink r:id="rId39" ref="E41"/>
+    <hyperlink r:id="rId40" ref="E42"/>
+    <hyperlink r:id="rId41" ref="E43"/>
+    <hyperlink r:id="rId42" ref="E44"/>
+    <hyperlink r:id="rId43" ref="E45"/>
+    <hyperlink r:id="rId44" ref="E46"/>
+    <hyperlink r:id="rId45" ref="E47"/>
+    <hyperlink r:id="rId46" ref="E48"/>
+    <hyperlink r:id="rId47" ref="E49"/>
+    <hyperlink r:id="rId48" ref="E50"/>
+    <hyperlink r:id="rId49" ref="E51"/>
+    <hyperlink r:id="rId50" ref="E52"/>
+    <hyperlink r:id="rId51" ref="E53"/>
+    <hyperlink r:id="rId52" ref="E54"/>
+    <hyperlink r:id="rId53" ref="E55"/>
+    <hyperlink r:id="rId54" ref="E56"/>
+    <hyperlink r:id="rId55" ref="E57"/>
+    <hyperlink r:id="rId56" ref="E58"/>
+    <hyperlink r:id="rId57" ref="E59"/>
+    <hyperlink r:id="rId58" ref="E60"/>
+    <hyperlink r:id="rId59" ref="E61"/>
+    <hyperlink r:id="rId60" ref="E62"/>
+    <hyperlink r:id="rId61" ref="E63"/>
+    <hyperlink r:id="rId62" ref="E64"/>
+    <hyperlink r:id="rId63" ref="E65"/>
+    <hyperlink r:id="rId64" ref="E66"/>
+    <hyperlink r:id="rId65" ref="E67"/>
+    <hyperlink r:id="rId66" ref="E68"/>
+    <hyperlink r:id="rId67" ref="E69"/>
+    <hyperlink r:id="rId68" ref="E70"/>
+    <hyperlink r:id="rId69" ref="E71"/>
+    <hyperlink r:id="rId70" ref="E72"/>
+    <hyperlink r:id="rId71" ref="E73"/>
+    <hyperlink r:id="rId72" ref="E74"/>
+    <hyperlink r:id="rId73" ref="E75"/>
+    <hyperlink r:id="rId74" ref="E76"/>
+    <hyperlink r:id="rId75" ref="E77"/>
+    <hyperlink r:id="rId76" ref="E79"/>
+    <hyperlink r:id="rId77" ref="E80"/>
+    <hyperlink r:id="rId78" ref="E81"/>
+    <hyperlink r:id="rId79" ref="E82"/>
+    <hyperlink r:id="rId80" ref="E83"/>
+    <hyperlink r:id="rId81" ref="E84"/>
+    <hyperlink r:id="rId82" ref="E85"/>
+    <hyperlink r:id="rId83" ref="E86"/>
+    <hyperlink r:id="rId84" ref="E87"/>
+    <hyperlink r:id="rId85" ref="E88"/>
+    <hyperlink r:id="rId86" ref="E89"/>
+    <hyperlink r:id="rId87" ref="E90"/>
+    <hyperlink r:id="rId88" ref="E91"/>
+    <hyperlink r:id="rId89" ref="E92"/>
+    <hyperlink r:id="rId90" ref="E93"/>
+    <hyperlink r:id="rId91" ref="E94"/>
+    <hyperlink r:id="rId92" ref="E95"/>
+    <hyperlink r:id="rId93" ref="E96"/>
+    <hyperlink r:id="rId94" ref="E97"/>
+    <hyperlink r:id="rId95" ref="E98"/>
+    <hyperlink r:id="rId96" ref="E99"/>
+    <hyperlink r:id="rId97" ref="E100"/>
+    <hyperlink r:id="rId98" ref="E101"/>
+    <hyperlink r:id="rId99" ref="E102"/>
+    <hyperlink r:id="rId100" ref="E103"/>
+    <hyperlink r:id="rId101" ref="E104"/>
+    <hyperlink r:id="rId102" ref="E105"/>
+    <hyperlink r:id="rId103" ref="E106"/>
+    <hyperlink r:id="rId104" ref="E107"/>
+    <hyperlink r:id="rId105" ref="E108"/>
+    <hyperlink r:id="rId106" ref="E109"/>
+    <hyperlink r:id="rId107" ref="E110"/>
+    <hyperlink r:id="rId108" ref="E111"/>
   </hyperlinks>
-  <drawing r:id="rId100"/>
+  <drawing r:id="rId109"/>
 </worksheet>
 </file>
--- a/client/public/players.xlsx
+++ b/client/public/players.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$Z$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$Z$111</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -123,7 +127,7 @@
     <t>https://drive.google.com/open?id=1kdh3MY7MY4KBvpWHdSQz0p8MyhEFmwWW</t>
   </si>
   <si>
-    <t>Rushabh shah</t>
+    <t>Rushabh shah2</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1Ef-uKrkqmVf0KVBACLrvxayE9RCudEuy</t>
@@ -708,26 +712,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF0000ff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -735,49 +741,71 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -804,22 +832,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -831,153 +919,190 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -990,1988 +1115,1873 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>9.773606355E9</v>
+      <c r="B2" s="3">
+        <v>9773606355</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
-        <v>7.021684837E9</v>
+      <c r="B3" s="3">
+        <v>7021684837</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>9.930129547E9</v>
+      <c r="B4" s="3">
+        <v>9930129547</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
-        <v>9.769989849E9</v>
+      <c r="B5" s="3">
+        <v>9769989849</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1">
-        <v>9.867561611E9</v>
+      <c r="B6" s="3">
+        <v>9867561611</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
-        <v>7.977407945E9</v>
+      <c r="B7" s="3">
+        <v>7977407945</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
-        <v>8.928966343E9</v>
+      <c r="B8" s="3">
+        <v>8928966343</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1">
-        <v>8.879307935E9</v>
+      <c r="B9" s="3">
+        <v>8879307935</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
-        <v>9.82079147E9</v>
+      <c r="B10" s="3">
+        <v>9820791470</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
-        <v>9.93031059E9</v>
+      <c r="B11" s="3">
+        <v>9930310590</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1">
-        <v>9.869311188E9</v>
+      <c r="B12" s="3">
+        <v>9869311188</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
-        <v>8.898593594E9</v>
+      <c r="B13" s="3">
+        <v>8898593594</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1">
-        <v>7.50684275E9</v>
+      <c r="B14" s="3">
+        <v>7506842750</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1">
-        <v>9.870741334E9</v>
+      <c r="B15" s="3">
+        <v>9870741334</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1">
-        <v>9.892055515E9</v>
+      <c r="B16" s="3">
+        <v>9892055515</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1">
-        <v>9.022222933E9</v>
+      <c r="B17" s="3">
+        <v>9022222933</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1">
-        <v>9.769476954E9</v>
+      <c r="B18" s="3">
+        <v>9769476954</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1">
-        <v>9.02212012E9</v>
+      <c r="B19" s="3">
+        <v>9022120120</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="1">
-        <v>9.869545696E9</v>
+      <c r="B20" s="3">
+        <v>9869545696</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="1">
-        <v>9.930072959E9</v>
+      <c r="B21" s="3">
+        <v>9930072959</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1">
-        <v>8.8987921E9</v>
+      <c r="B22" s="3">
+        <v>8898792100</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1">
-        <v>7.977588754E9</v>
+      <c r="B23" s="3">
+        <v>7977588754</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="1">
-        <v>7.021876585E9</v>
+      <c r="B24" s="3">
+        <v>7021876585</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="1">
-        <v>9.869225827E9</v>
+      <c r="B25" s="3">
+        <v>9869225827</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1">
-        <v>9.029022776E9</v>
+      <c r="B26" s="3">
+        <v>9029022776</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1">
-        <v>9.821159882E9</v>
+      <c r="B27" s="3">
+        <v>9821159882</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="1">
-        <v>9.920681132E9</v>
+      <c r="B28" s="3">
+        <v>9920681132</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1">
-        <v>9.768050032E9</v>
+      <c r="B29" s="3">
+        <v>9768050032</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1">
-        <v>8.0807461E9</v>
+      <c r="B30" s="3">
+        <v>8080746100</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1">
-        <v>8.43360327E9</v>
+      <c r="B31" s="3">
+        <v>8433603270</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="1">
-        <v>8.09746217E9</v>
+      <c r="B32" s="3">
+        <v>8097462170</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="1">
-        <v>9.699262927E9</v>
+      <c r="B33" s="3">
+        <v>9699262927</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="1">
-        <v>9.867636916E9</v>
+      <c r="B34" s="3">
+        <v>9867636916</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="1">
-        <v>8.779636629E9</v>
+      <c r="B35" s="3">
+        <v>8779636629</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="1">
-        <v>9.930013972E9</v>
+      <c r="B36" s="3">
+        <v>9930013972</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="1">
-        <v>4.043333424E9</v>
+      <c r="B37" s="3">
+        <v>4043333424</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="1">
-        <v>8.655209616E9</v>
+      <c r="B38" s="3">
+        <v>8655209616</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="1">
-        <v>8.356960623E9</v>
+      <c r="B39" s="3">
+        <v>8356960623</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="1">
-        <v>9.930818425E9</v>
+      <c r="B40" s="3">
+        <v>9930818425</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="1">
-        <v>8.433810983E9</v>
+      <c r="B41" s="3">
+        <v>8433810983</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="1">
-        <v>9.820859577E9</v>
+      <c r="B42" s="3">
+        <v>9820859577</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="1">
-        <v>9.819578866E9</v>
+      <c r="B43" s="3">
+        <v>9819578866</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="1">
-        <v>9.00400101E9</v>
+      <c r="B44" s="3">
+        <v>9004001010</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="1">
-        <v>9.89215956E9</v>
+      <c r="B45" s="3">
+        <v>9892159560</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="1">
-        <v>9.820632132E9</v>
+      <c r="B46" s="3">
+        <v>9820632132</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="1">
-        <v>9.867394975E9</v>
+      <c r="B47" s="3">
+        <v>9867394975</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B48" s="1">
-        <v>9.821354528E9</v>
+      <c r="B48" s="3">
+        <v>9821354528</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="1">
-        <v>9.004399858E9</v>
+      <c r="B49" s="3">
+        <v>9004399858</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="1">
-        <v>9.821186216E9</v>
+      <c r="B50" s="3">
+        <v>9821186216</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="1">
-        <v>9.892685147E9</v>
+      <c r="B51" s="3">
+        <v>9892685147</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="1">
-        <v>9.699266669E9</v>
+      <c r="B52" s="3">
+        <v>9699266669</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="1">
-        <v>9.819079703E9</v>
+      <c r="B53" s="3">
+        <v>9819079703</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="1">
-        <v>8.850104467E9</v>
+      <c r="B54" s="3">
+        <v>8850104467</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="1">
-        <v>9.769932254E9</v>
+      <c r="B55" s="3">
+        <v>9769932254</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="1">
-        <v>8.369063236E9</v>
+      <c r="B56" s="3">
+        <v>8369063236</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="1">
-        <v>9.833886667E9</v>
+      <c r="B57" s="3">
+        <v>9833886667</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="58">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="1">
-        <v>9.867814546E9</v>
+      <c r="B58" s="3">
+        <v>9867814546</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="1">
-        <v>9.820255163E9</v>
+      <c r="B59" s="3">
+        <v>9820255163</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="1">
-        <v>9.870793585E9</v>
+      <c r="B60" s="3">
+        <v>9870793585</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="1">
-        <v>9.503908672E9</v>
+      <c r="B61" s="3">
+        <v>9503908672</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="1">
-        <v>9.029744054E9</v>
+      <c r="B62" s="3">
+        <v>9029744054</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="63">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="1">
-        <v>9.920207663E9</v>
+      <c r="B63" s="3">
+        <v>9920207663</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B64" s="1">
-        <v>9.313707361E9</v>
+      <c r="B64" s="3">
+        <v>9313707361</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="65">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="1">
-        <v>9.820079925E9</v>
+      <c r="B65" s="3">
+        <v>9820079925</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="1">
-        <v>7.710032607E9</v>
+      <c r="B66" s="3">
+        <v>7710032607</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="1">
-        <v>9.833390547E9</v>
+      <c r="B67" s="3">
+        <v>9833390547</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="1">
-        <v>7.977275351E9</v>
+      <c r="B68" s="3">
+        <v>7977275351</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="69">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="1">
-        <v>9.137274284E9</v>
+      <c r="B69" s="3">
+        <v>9137274284</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="1">
-        <v>9.870123403E9</v>
+      <c r="B70" s="3">
+        <v>9870123403</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="71">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B71" s="1">
-        <v>9.769545777E9</v>
+      <c r="B71" s="3">
+        <v>9769545777</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="72">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B72" s="1">
-        <v>9.32166458E9</v>
+      <c r="B72" s="3">
+        <v>9321664580</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="1">
-        <v>9.93099987E9</v>
+      <c r="B73" s="3">
+        <v>9930999870</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="74">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="1">
-        <v>9.819784749E9</v>
+      <c r="B74" s="3">
+        <v>9819784749</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="1">
-        <v>9.702326555E9</v>
+      <c r="B75" s="3">
+        <v>9702326555</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="76">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="1">
-        <v>7.666127999E9</v>
+      <c r="B76" s="3">
+        <v>7666127999</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="77">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="1">
-        <v>9.833652653E9</v>
+      <c r="B77" s="3">
+        <v>9833652653</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="78">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B78" s="1">
-        <v>9.820417077E9</v>
+      <c r="B78" s="3">
+        <v>9820417077</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="1"/>
     </row>
-    <row r="79">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B79" s="1">
-        <v>9.833207815E9</v>
+      <c r="B79" s="3">
+        <v>9833207815</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="1">
-        <v>9.870738887E9</v>
+      <c r="B80" s="3">
+        <v>9870738887</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="81">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="1">
-        <v>9.6996928E9</v>
+      <c r="B81" s="3">
+        <v>9699692800</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="1">
-        <v>7.718822525E9</v>
+      <c r="B82" s="3">
+        <v>7718822525</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="1">
-        <v>9.987885797E9</v>
+      <c r="B83" s="3">
+        <v>9987885797</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="84">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B84" s="1">
-        <v>8.36921425E9</v>
+      <c r="B84" s="3">
+        <v>8369214250</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="D84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="1">
-        <v>9.920460467E9</v>
+      <c r="B85" s="3">
+        <v>9920460467</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="D85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="1">
-        <v>9.619494456E9</v>
+      <c r="B86" s="3">
+        <v>9619494456</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B87" s="1">
-        <v>9.773616681E9</v>
+      <c r="B87" s="3">
+        <v>9773616681</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="88">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="1">
-        <v>8.108881076E9</v>
+      <c r="B88" s="3">
+        <v>8108881076</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B89" s="1">
-        <v>8.976444064E9</v>
+      <c r="B89" s="3">
+        <v>8976444064</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B90" s="1">
-        <v>8.591770115E9</v>
+      <c r="B90" s="3">
+        <v>8591770115</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="D90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B91" s="1">
-        <v>9.821345631E9</v>
+      <c r="B91" s="3">
+        <v>9821345631</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="92">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="1">
-        <v>9.82004587E9</v>
+      <c r="B92" s="3">
+        <v>9820045870</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="3" t="s">
+      <c r="D92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="93">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B93" s="1">
-        <v>8.89800144E9</v>
+      <c r="B93" s="3">
+        <v>8898001440</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="D93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B94" s="1">
-        <v>9.869479136E9</v>
+      <c r="B94" s="3">
+        <v>9869479136</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="95">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B95" s="1">
-        <v>9.820812302E9</v>
+      <c r="B95" s="3">
+        <v>9820812302</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B96" s="1">
-        <v>7.208043142E9</v>
+      <c r="B96" s="3">
+        <v>7208043142</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="97">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B97" s="1">
-        <v>9.768926868E9</v>
+      <c r="B97" s="3">
+        <v>9768926868</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="D97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B98" s="1">
-        <v>9.821133336E9</v>
+      <c r="B98" s="3">
+        <v>9821133336</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B99" s="1">
-        <v>9.819968255E9</v>
+      <c r="B99" s="3">
+        <v>9819968255</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="3" t="s">
+      <c r="D99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="100">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B100" s="1">
-        <v>9.833733943E9</v>
+      <c r="B100" s="3">
+        <v>9833733943</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="4" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="101">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B101" s="1">
-        <v>9.930760682E9</v>
+      <c r="B101" s="3">
+        <v>9930760682</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="D101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="102">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B102" s="1">
-        <v>8.850616502E9</v>
+      <c r="B102" s="3">
+        <v>8850616502</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="103">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="1">
-        <v>9.820019991E9</v>
+      <c r="B103" s="3">
+        <v>9820019991</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="D103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="104">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B104" s="1">
-        <v>9.892894116E9</v>
+      <c r="B104" s="3">
+        <v>9892894116</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="105">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B105" s="1">
-        <v>9.004955312E9</v>
+      <c r="B105" s="3">
+        <v>9004955312</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="D105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="106">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B106" s="1">
-        <v>9.819412999E9</v>
+      <c r="B106" s="3">
+        <v>9819412999</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="107">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B107" s="1">
-        <v>9.892617742E9</v>
+      <c r="B107" s="3">
+        <v>9892617742</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="108">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B108" s="1">
-        <v>9.869273734E9</v>
+      <c r="B108" s="3">
+        <v>9869273734</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="D108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="109">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B109" s="1">
-        <v>9.82051877E9</v>
+      <c r="B109" s="3">
+        <v>9820518770</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="D109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="110">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B110" s="1">
-        <v>9.820483111E9</v>
+      <c r="B110" s="3">
+        <v>9820483111</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="3" t="s">
+      <c r="D110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="111">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B111" s="1">
-        <v>9.820479965E9</v>
+      <c r="B111" s="3">
+        <v>9820479965</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="3" t="s">
+      <c r="D111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$111">
-    <sortState ref="A1:Z111">
-      <sortCondition ref="C1:C111"/>
-    </sortState>
-  </autoFilter>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="E4"/>
-    <hyperlink r:id="rId4" ref="E5"/>
-    <hyperlink r:id="rId5" ref="E6"/>
-    <hyperlink r:id="rId6" ref="E7"/>
-    <hyperlink r:id="rId7" ref="E8"/>
-    <hyperlink r:id="rId8" ref="E9"/>
-    <hyperlink r:id="rId9" ref="E10"/>
-    <hyperlink r:id="rId10" ref="E11"/>
-    <hyperlink r:id="rId11" ref="E12"/>
-    <hyperlink r:id="rId12" ref="E13"/>
-    <hyperlink r:id="rId13" ref="E14"/>
-    <hyperlink r:id="rId14" ref="E15"/>
-    <hyperlink r:id="rId15" ref="E16"/>
-    <hyperlink r:id="rId16" ref="E17"/>
-    <hyperlink r:id="rId17" ref="E18"/>
-    <hyperlink r:id="rId18" ref="E19"/>
-    <hyperlink r:id="rId19" ref="E20"/>
-    <hyperlink r:id="rId20" ref="E21"/>
-    <hyperlink r:id="rId21" ref="E22"/>
-    <hyperlink r:id="rId22" ref="E23"/>
-    <hyperlink r:id="rId23" ref="E24"/>
-    <hyperlink r:id="rId24" ref="E25"/>
-    <hyperlink r:id="rId25" ref="E26"/>
-    <hyperlink r:id="rId26" ref="E27"/>
-    <hyperlink r:id="rId27" ref="E28"/>
-    <hyperlink r:id="rId28" ref="E29"/>
-    <hyperlink r:id="rId29" ref="E30"/>
-    <hyperlink r:id="rId30" ref="E31"/>
-    <hyperlink r:id="rId31" ref="E32"/>
-    <hyperlink r:id="rId32" ref="E33"/>
-    <hyperlink r:id="rId33" ref="E34"/>
-    <hyperlink r:id="rId34" ref="E35"/>
-    <hyperlink r:id="rId35" ref="E36"/>
-    <hyperlink r:id="rId36" ref="E38"/>
-    <hyperlink r:id="rId37" ref="E39"/>
-    <hyperlink r:id="rId38" ref="E40"/>
-    <hyperlink r:id="rId39" ref="E41"/>
-    <hyperlink r:id="rId40" ref="E42"/>
-    <hyperlink r:id="rId41" ref="E43"/>
-    <hyperlink r:id="rId42" ref="E44"/>
-    <hyperlink r:id="rId43" ref="E45"/>
-    <hyperlink r:id="rId44" ref="E46"/>
-    <hyperlink r:id="rId45" ref="E47"/>
-    <hyperlink r:id="rId46" ref="E48"/>
-    <hyperlink r:id="rId47" ref="E49"/>
-    <hyperlink r:id="rId48" ref="E50"/>
-    <hyperlink r:id="rId49" ref="E51"/>
-    <hyperlink r:id="rId50" ref="E52"/>
-    <hyperlink r:id="rId51" ref="E53"/>
-    <hyperlink r:id="rId52" ref="E54"/>
-    <hyperlink r:id="rId53" ref="E55"/>
-    <hyperlink r:id="rId54" ref="E56"/>
-    <hyperlink r:id="rId55" ref="E57"/>
-    <hyperlink r:id="rId56" ref="E58"/>
-    <hyperlink r:id="rId57" ref="E59"/>
-    <hyperlink r:id="rId58" ref="E60"/>
-    <hyperlink r:id="rId59" ref="E61"/>
-    <hyperlink r:id="rId60" ref="E62"/>
-    <hyperlink r:id="rId61" ref="E63"/>
-    <hyperlink r:id="rId62" ref="E64"/>
-    <hyperlink r:id="rId63" ref="E65"/>
-    <hyperlink r:id="rId64" ref="E66"/>
-    <hyperlink r:id="rId65" ref="E67"/>
-    <hyperlink r:id="rId66" ref="E68"/>
-    <hyperlink r:id="rId67" ref="E69"/>
-    <hyperlink r:id="rId68" ref="E70"/>
-    <hyperlink r:id="rId69" ref="E71"/>
-    <hyperlink r:id="rId70" ref="E72"/>
-    <hyperlink r:id="rId71" ref="E73"/>
-    <hyperlink r:id="rId72" ref="E74"/>
-    <hyperlink r:id="rId73" ref="E75"/>
-    <hyperlink r:id="rId74" ref="E76"/>
-    <hyperlink r:id="rId75" ref="E77"/>
-    <hyperlink r:id="rId76" ref="E79"/>
-    <hyperlink r:id="rId77" ref="E80"/>
-    <hyperlink r:id="rId78" ref="E81"/>
-    <hyperlink r:id="rId79" ref="E82"/>
-    <hyperlink r:id="rId80" ref="E83"/>
-    <hyperlink r:id="rId81" ref="E84"/>
-    <hyperlink r:id="rId82" ref="E85"/>
-    <hyperlink r:id="rId83" ref="E86"/>
-    <hyperlink r:id="rId84" ref="E87"/>
-    <hyperlink r:id="rId85" ref="E88"/>
-    <hyperlink r:id="rId86" ref="E89"/>
-    <hyperlink r:id="rId87" ref="E90"/>
-    <hyperlink r:id="rId88" ref="E91"/>
-    <hyperlink r:id="rId89" ref="E92"/>
-    <hyperlink r:id="rId90" ref="E93"/>
-    <hyperlink r:id="rId91" ref="E94"/>
-    <hyperlink r:id="rId92" ref="E95"/>
-    <hyperlink r:id="rId93" ref="E96"/>
-    <hyperlink r:id="rId94" ref="E97"/>
-    <hyperlink r:id="rId95" ref="E98"/>
-    <hyperlink r:id="rId96" ref="E99"/>
-    <hyperlink r:id="rId97" ref="E100"/>
-    <hyperlink r:id="rId98" ref="E101"/>
-    <hyperlink r:id="rId99" ref="E102"/>
-    <hyperlink r:id="rId100" ref="E103"/>
-    <hyperlink r:id="rId101" ref="E104"/>
-    <hyperlink r:id="rId102" ref="E105"/>
-    <hyperlink r:id="rId103" ref="E106"/>
-    <hyperlink r:id="rId104" ref="E107"/>
-    <hyperlink r:id="rId105" ref="E108"/>
-    <hyperlink r:id="rId106" ref="E109"/>
-    <hyperlink r:id="rId107" ref="E110"/>
-    <hyperlink r:id="rId108" ref="E111"/>
-  </hyperlinks>
-  <drawing r:id="rId109"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>